--- a/StructureDefinition-research-study-subject.xlsx
+++ b/StructureDefinition-research-study-subject.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-03T23:11:23+00:00</t>
+    <t>2024-07-08T16:31:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-subject.xlsx
+++ b/StructureDefinition-research-study-subject.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T16:31:04+00:00</t>
+    <t>2024-07-11T20:02:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-subject.xlsx
+++ b/StructureDefinition-research-study-subject.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T20:02:03+00:00</t>
+    <t>2024-07-15T14:16:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-subject.xlsx
+++ b/StructureDefinition-research-study-subject.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T14:16:39+00:00</t>
+    <t>2024-07-30T19:47:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-subject.xlsx
+++ b/StructureDefinition-research-study-subject.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T19:47:38+00:00</t>
+    <t>2024-08-08T16:40:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-subject.xlsx
+++ b/StructureDefinition-research-study-subject.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T16:40:30+00:00</t>
+    <t>2024-08-08T19:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-subject.xlsx
+++ b/StructureDefinition-research-study-subject.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T19:03:14+00:00</t>
+    <t>2024-08-12T19:06:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-subject.xlsx
+++ b/StructureDefinition-research-study-subject.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-12T19:06:04+00:00</t>
+    <t>2024-08-20T21:48:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-subject.xlsx
+++ b/StructureDefinition-research-study-subject.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T21:48:07+00:00</t>
+    <t>2024-08-22T16:27:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-subject.xlsx
+++ b/StructureDefinition-research-study-subject.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-22T16:27:20+00:00</t>
+    <t>2024-09-10T18:56:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-subject.xlsx
+++ b/StructureDefinition-research-study-subject.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T18:56:29+00:00</t>
+    <t>2024-09-12T18:14:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-subject.xlsx
+++ b/StructureDefinition-research-study-subject.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T18:14:21+00:00</t>
+    <t>2024-09-13T20:57:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-subject.xlsx
+++ b/StructureDefinition-research-study-subject.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T20:57:31+00:00</t>
+    <t>2024-09-16T16:04:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
